--- a/week 5/مطالعات/Skale(V3.6).xlsx
+++ b/week 5/مطالعات/Skale(V3.6).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="80">
   <si>
     <t>نام</t>
   </si>
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2688,18 +2688,42 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="A35" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="42">
+        <v>1016</v>
+      </c>
+      <c r="C35" s="42">
+        <v>4</v>
+      </c>
+      <c r="D35" s="42">
+        <v>2</v>
+      </c>
+      <c r="E35" s="42">
+        <v>2</v>
+      </c>
+      <c r="F35" s="42">
+        <v>4</v>
+      </c>
+      <c r="G35" s="42">
+        <v>3</v>
+      </c>
+      <c r="H35" s="42">
+        <v>4</v>
+      </c>
+      <c r="I35" s="42">
+        <v>1</v>
+      </c>
+      <c r="J35" s="42">
+        <v>2</v>
+      </c>
+      <c r="K35" s="42">
+        <v>3</v>
+      </c>
+      <c r="L35" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
@@ -4926,57 +4950,57 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="9" t="str">
         <f>گوگل!A35</f>
-        <v>0</v>
+        <v>ایلیا دوروزه</v>
       </c>
       <c r="B35" s="9">
         <f>گوگل!B35</f>
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="C35" s="10">
         <f>IF(گوگل!C35=کلید!B$2,3,IF(گوگل!C35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" s="10">
         <f>IF(گوگل!D35=کلید!C$2,3,IF(گوگل!D35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="10">
         <f>IF(گوگل!E35=کلید!D$2,3,IF(گوگل!E35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="10">
         <f>IF(گوگل!F35=کلید!E$2,3,IF(گوگل!F35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="10">
         <f>IF(گوگل!G35=کلید!F$2,3,IF(گوگل!G35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" s="10">
         <f>IF(گوگل!H35=کلید!G$2,3,IF(گوگل!H35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35" s="10">
         <f>IF(گوگل!I35=کلید!H$2,3,IF(گوگل!I35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" s="10">
         <f>IF(گوگل!J35=کلید!I$2,3,IF(گوگل!J35="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K35" s="10">
         <f>IF(گوگل!K35=کلید!J$2,3,IF(گوگل!K35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="10">
         <f>IF(گوگل!L35=کلید!K$2,3,IF(گوگل!L35="",0,-1))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -5530,7 +5554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -6122,11 +6146,11 @@
       </c>
       <c r="C31" s="32" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,B31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
-      </c>
-      <c r="D31" s="38" t="str">
+        <v>حاضر</v>
+      </c>
+      <c r="D31" s="38">
         <f>IF(COUNTIF(درصد!B$2:B$44,B31)&gt;0, INDEX(گوگل!B$2:B$44,MATCH(B31,درصد!B$2:B$44,0)),"غایب")</f>
-        <v>غایب</v>
+        <v>1016</v>
       </c>
       <c r="AMI31"/>
     </row>
@@ -6328,7 +6352,7 @@
       </c>
       <c r="C44" s="22">
         <f>COUNTIF('نتایج روزانه'!D2:D42,"غایب")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:1023" x14ac:dyDescent="0.25">
@@ -6602,7 +6626,7 @@
     <row r="5" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A5" s="24">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>22</v>
@@ -6902,7 +6926,7 @@
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>15</v>
@@ -7022,7 +7046,7 @@
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>25</v>
@@ -7142,7 +7166,7 @@
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>16</v>
@@ -7262,7 +7286,7 @@
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>31</v>
@@ -7382,7 +7406,7 @@
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>17</v>
@@ -7442,7 +7466,7 @@
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>44</v>
@@ -7502,7 +7526,7 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>29</v>
@@ -7562,7 +7586,7 @@
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>42</v>
@@ -7622,7 +7646,7 @@
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>38</v>
@@ -7682,7 +7706,7 @@
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>33</v>
@@ -7802,7 +7826,7 @@
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>23</v>
@@ -7982,7 +8006,7 @@
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>41</v>
@@ -8042,7 +8066,7 @@
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>26</v>
@@ -8102,7 +8126,7 @@
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>36</v>
@@ -8162,7 +8186,7 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>48</v>
@@ -8172,51 +8196,51 @@
       </c>
       <c r="D31" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C31)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!C$2:C$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!D$2:D$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!E$2:E$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!H$2:H$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!I$2:I$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!J$2:J$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!K$2:K$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!L$2:L$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C31)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C31,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -8282,7 +8306,7 @@
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>47</v>
@@ -8402,7 +8426,7 @@
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>24</v>
@@ -8522,7 +8546,7 @@
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="24">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>12</v>
@@ -8582,7 +8606,7 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>58</v>
@@ -8642,7 +8666,7 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>59</v>
@@ -8702,7 +8726,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>39</v>
@@ -8762,7 +8786,7 @@
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>32</v>
@@ -8822,7 +8846,7 @@
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>27</v>
@@ -9213,7 +9237,7 @@
       </c>
       <c r="C17" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B17)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B17,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -9527,7 +9551,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O44"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10605,7 +10629,7 @@
     <row r="19" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>25</v>
@@ -10665,7 +10689,7 @@
     <row r="20" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>44</v>
@@ -10725,7 +10749,7 @@
     <row r="21" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>47</v>
@@ -10785,7 +10809,7 @@
     <row r="22" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>32</v>
@@ -10845,7 +10869,7 @@
     <row r="23" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>31</v>
@@ -10905,7 +10929,7 @@
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>29</v>
@@ -10965,7 +10989,7 @@
     <row r="25" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>42</v>
@@ -11025,7 +11049,7 @@
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>39</v>
@@ -11085,7 +11109,7 @@
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>27</v>
@@ -11145,7 +11169,7 @@
     <row r="28" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>41</v>
@@ -11205,7 +11229,7 @@
     <row r="29" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>24</v>
@@ -11265,7 +11289,7 @@
     <row r="30" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>58</v>
@@ -11325,7 +11349,7 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>36</v>
@@ -11385,7 +11409,7 @@
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>15</v>
@@ -11445,7 +11469,7 @@
     <row r="33" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>17</v>
@@ -11505,7 +11529,7 @@
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>38</v>
@@ -11565,7 +11589,7 @@
     <row r="35" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>23</v>
@@ -11625,7 +11649,7 @@
     <row r="36" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A36" s="24">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>26</v>
@@ -11685,7 +11709,7 @@
     <row r="37" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A37" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>59</v>
@@ -11745,7 +11769,7 @@
     <row r="38" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>33</v>
@@ -11805,7 +11829,7 @@
     <row r="39" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>22</v>
@@ -11865,7 +11889,7 @@
     <row r="40" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>16</v>
@@ -11925,7 +11949,7 @@
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>48</v>
@@ -11935,57 +11959,57 @@
       </c>
       <c r="D41" s="23" t="str">
         <f>IF(COUNTIF(گوگل!B$2:B$44,C41)=1,"حاضر","غایب")</f>
-        <v>غایب</v>
+        <v>حاضر</v>
       </c>
       <c r="E41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!C$2:C$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!D$2:D$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!E$2:E$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!H$2:H$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!I$2:I$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!J$2:J$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!K$2:K$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C41)&gt;0, INDEX(گوگل!L$2:L$44,MATCH($C41,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C41)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C41,درصد!B$2:B$44,0)),0)</f>
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>12</v>

--- a/week 5/مطالعات/Skale(V3.6).xlsx
+++ b/week 5/مطالعات/Skale(V3.6).xlsx
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:L45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="42">
         <v>3</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="F9" s="10">
         <f>IF(گوگل!F9=کلید!E$2,3,IF(گوگل!F9="",0,-1))</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="10">
         <f>IF(گوگل!G9=کلید!F$2,3,IF(گوگل!G9="",0,-1))</f>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
     <row r="4" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A4" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>18</v>
@@ -6806,7 +6806,7 @@
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>43</v>
@@ -6986,7 +6986,7 @@
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>45</v>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="H11" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!F$2:F$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="23">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!G$2:G$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="O11" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
@@ -7106,7 +7106,7 @@
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>30</v>
@@ -7226,7 +7226,7 @@
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>34</v>
@@ -7346,7 +7346,7 @@
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>13</v>
@@ -7766,7 +7766,7 @@
     <row r="24" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>35</v>
@@ -7886,7 +7886,7 @@
     <row r="26" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>40</v>
@@ -7946,7 +7946,7 @@
     <row r="27" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>49</v>
@@ -8186,7 +8186,7 @@
     <row r="31" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>48</v>
@@ -8246,7 +8246,7 @@
     <row r="32" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>20</v>
@@ -8366,7 +8366,7 @@
     <row r="34" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>21</v>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C32" s="41">
         <f>IF(COUNTIF(درصد!B$2:B$44,B32)&gt;0, INDEX(درصد!M$2:M$44,MATCH(B32,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -9551,7 +9551,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9969,7 +9969,7 @@
     <row r="8" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A8" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>43</v>
@@ -10029,7 +10029,7 @@
     <row r="9" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A9" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>13</v>
@@ -10089,7 +10089,7 @@
     <row r="10" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>18</v>
@@ -10149,7 +10149,7 @@
     <row r="11" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>45</v>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="H11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!F$2:F$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="23">
         <f>IF(COUNTIF(گوگل!$B$2:$B$44,$C11)&gt;0, INDEX(گوگل!G$2:G$44,MATCH($C11,گوگل!$B$2:$B$44,0)),0)</f>
@@ -10203,13 +10203,13 @@
       </c>
       <c r="O11" s="26">
         <f>IF(COUNTIF(درصد!B$2:B$44,C11)&gt;0, INDEX(درصد!M$2:M$44,MATCH(C11,درصد!B$2:B$44,0)),0)</f>
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>30</v>
@@ -10269,7 +10269,7 @@
     <row r="13" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>34</v>
@@ -10329,7 +10329,7 @@
     <row r="14" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>35</v>
@@ -10389,7 +10389,7 @@
     <row r="15" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>40</v>
@@ -10449,7 +10449,7 @@
     <row r="16" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>49</v>
@@ -10509,7 +10509,7 @@
     <row r="17" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>20</v>
@@ -10569,7 +10569,7 @@
     <row r="18" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>21</v>
@@ -11949,7 +11949,7 @@
     <row r="41" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.6">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>48</v>
